--- a/biology/Médecine/Hôpital_Charles-Le_Moyne/Hôpital_Charles-Le_Moyne.xlsx
+++ b/biology/Médecine/Hôpital_Charles-Le_Moyne/Hôpital_Charles-Le_Moyne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Charles-Le_Moyne</t>
+          <t>Hôpital_Charles-Le_Moyne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital Charles-LeMoyne, situé à Greenfield Park, est un centre régional de soins de courte durée offrant des soins hospitaliers et ambulatoires généraux, spécialisés et surspécialisés. Affilié à l'Université de Sherbrooke, il est chargé d'accueillir et de former des étudiants en médecine, en sciences infirmières et autres secteurs multidisciplinaires. Il est reconnu notamment comme centre de référence régional en cancérologie, en pédopsychiatrie, en neurochirurgie et en biologie médicale, ainsi que pour son centre de recherche axé sur les interventions novatrices en santé. L'HCLM est aussi un centre désigné secondaire en traumatologie. L’HCLM compte environ 3 200 employés dont près de 1 600 en soins infirmiers, 500 professionnels et techniciens de la santé ainsi que 440 médecins omnipraticiens et spécialistes et environ 160 bénévoles. Son budget annuel est de plus de 230 M $.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Charles-Le_Moyne</t>
+          <t>Hôpital_Charles-Le_Moyne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Centre régional et universitaire de la Montérégie
 Affilié à l'Université de Sherbrooke
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Charles-Le_Moyne</t>
+          <t>Hôpital_Charles-Le_Moyne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ouverture de l'Hôpital Charles LeMoyne en 1966 fut l'aboutissement de près de vingt ans d'efforts en vue d'établir un grand hôpital général sur la Rive-Sud de Montréal. Les travaux de construction ont commencé le 25 octobre 1962 et se sont terminés précisément trois ans plus tard. L'hôpital accueillait ses premiers patients le 21 mars 1966 dans les 125 lits et les 30 berceaux dont il disposait. L'hôpital tire son nom du premier seigneur de la région, Charles LeMoyne.
 En 1965, fin à travaux de l'Hôpital Charles-LeMoyne.
@@ -591,7 +607,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Charles-Le_Moyne</t>
+          <t>Hôpital_Charles-Le_Moyne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -609,7 +625,9 @@
           <t>Directeurs généraux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gérard Lanoue (1966-1984)
 Jean-Pierre Montpetit (1985-1998)
@@ -628,7 +646,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Charles-Le_Moyne</t>
+          <t>Hôpital_Charles-Le_Moyne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -646,7 +664,9 @@
           <t>Présidents du conseil d'administration</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Antoine Desmarais (1964-1967)
 Antoine Spickler (1967-1969)
